--- a/po_analysis_by_asin/B0BRBXF3MW_po_data.xlsx
+++ b/po_analysis_by_asin/B0BRBXF3MW_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,71 +452,71 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45306</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>105</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45313</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45334</v>
+        <v>45018.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>90</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45341</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>60</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45348</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45355</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>60</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45383</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>90</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45397</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45404</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>10</v>
@@ -524,129 +524,361 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45411</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45439</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45446</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45453</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45460</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>20</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45481</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45495</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45509</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>140</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45530</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45544</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45551</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45558</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45572</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45579</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45586</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45593</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B26" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B55" t="n">
         <v>10</v>
       </c>
     </row>
@@ -661,7 +893,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,81 +915,161 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>135</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>180</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>130</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45505</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45536</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45566</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B21" t="n">
         <v>90</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BRBXF3MW_po_data.xlsx
+++ b/po_analysis_by_asin/B0BRBXF3MW_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -564,15 +564,15 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45130.99999999999</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45137.99999999999</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>15</v>
@@ -580,71 +580,71 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45144.99999999999</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45165.99999999999</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45172.99999999999</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45186.99999999999</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45193.99999999999</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45200.99999999999</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45214.99999999999</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45221.99999999999</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45235.99999999999</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B26" t="n">
         <v>25</v>
@@ -652,63 +652,63 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45242.99999999999</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45256.99999999999</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45263.99999999999</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>25</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45270.99999999999</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45312.99999999999</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45319.99999999999</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45340.99999999999</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45347.99999999999</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B34" t="n">
         <v>60</v>
@@ -716,79 +716,79 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45354.99999999999</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45361.99999999999</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45389.99999999999</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45403.99999999999</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45410.99999999999</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45417.99999999999</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45445.99999999999</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B41" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45452.99999999999</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45459.99999999999</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45466.99999999999</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B44" t="n">
         <v>20</v>
@@ -796,55 +796,55 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45487.99999999999</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45501.99999999999</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45515.99999999999</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>140</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45536.99999999999</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45550.99999999999</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B49" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45557.99999999999</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B50" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45564.99999999999</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B51" t="n">
         <v>60</v>
@@ -852,7 +852,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45578.99999999999</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B52" t="n">
         <v>10</v>
@@ -860,25 +860,9 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45585.99999999999</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B53" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>45592.99999999999</v>
-      </c>
-      <c r="B54" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>45599.99999999999</v>
-      </c>
-      <c r="B55" t="n">
         <v>10</v>
       </c>
     </row>
@@ -950,7 +934,7 @@
         <v>45138.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7">

--- a/po_analysis_by_asin/B0BRBXF3MW_po_data.xlsx
+++ b/po_analysis_by_asin/B0BRBXF3MW_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -893,7 +894,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1055,6 +1056,887 @@
       </c>
       <c r="B21" t="n">
         <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>23</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-15.61506340866121</v>
+      </c>
+      <c r="D2" t="n">
+        <v>57.09786530621413</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>24</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-11.76873756880311</v>
+      </c>
+      <c r="D3" t="n">
+        <v>60.65042121521493</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-10.12525676165679</v>
+      </c>
+      <c r="D4" t="n">
+        <v>60.56215488677437</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>24</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-9.83851055539499</v>
+      </c>
+      <c r="D5" t="n">
+        <v>58.75412967137404</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>24</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-9.974103823685299</v>
+      </c>
+      <c r="D6" t="n">
+        <v>58.63932091176819</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>25</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-14.2183116898207</v>
+      </c>
+      <c r="D7" t="n">
+        <v>59.07501646975803</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>25</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-14.94945315942833</v>
+      </c>
+      <c r="D8" t="n">
+        <v>57.54133688259731</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>25</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-11.23073210037863</v>
+      </c>
+      <c r="D9" t="n">
+        <v>57.03637928588709</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>25</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-10.8179939662141</v>
+      </c>
+      <c r="D10" t="n">
+        <v>62.06929623279016</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>25</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-10.66370749177719</v>
+      </c>
+      <c r="D11" t="n">
+        <v>60.56027882229612</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>26</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-9.493105806318853</v>
+      </c>
+      <c r="D12" t="n">
+        <v>62.31552837046255</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>26</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-11.82441277675334</v>
+      </c>
+      <c r="D13" t="n">
+        <v>60.7557079536303</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>27</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-7.066349811587548</v>
+      </c>
+      <c r="D14" t="n">
+        <v>64.73607840145843</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>27</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-9.852328678775018</v>
+      </c>
+      <c r="D15" t="n">
+        <v>64.28308017955324</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>28</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-6.019080940277938</v>
+      </c>
+      <c r="D16" t="n">
+        <v>62.6479663483631</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>29</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-6.51066407129093</v>
+      </c>
+      <c r="D17" t="n">
+        <v>65.55852719797404</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>29</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-7.014186971367607</v>
+      </c>
+      <c r="D18" t="n">
+        <v>64.50367467456202</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>29</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-7.911254452358056</v>
+      </c>
+      <c r="D19" t="n">
+        <v>66.4555029913241</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>30</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-6.042749756182386</v>
+      </c>
+      <c r="D20" t="n">
+        <v>66.19386444557448</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>30</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-6.055707797051016</v>
+      </c>
+      <c r="D21" t="n">
+        <v>63.7291700121112</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>30</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-5.192378473933331</v>
+      </c>
+      <c r="D22" t="n">
+        <v>64.2916366606765</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>31</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-6.189659976969986</v>
+      </c>
+      <c r="D23" t="n">
+        <v>66.69307911957254</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>31</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-6.508018660634038</v>
+      </c>
+      <c r="D24" t="n">
+        <v>64.22381174451584</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>31</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-5.123927747894798</v>
+      </c>
+      <c r="D25" t="n">
+        <v>66.38673495779123</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>32</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-3.866557331032655</v>
+      </c>
+      <c r="D26" t="n">
+        <v>67.16130378604058</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>32</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-2.830672303494972</v>
+      </c>
+      <c r="D27" t="n">
+        <v>67.39284117914821</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>32</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-2.776873682707441</v>
+      </c>
+      <c r="D28" t="n">
+        <v>69.76145306631385</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>34</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-2.609990160351677</v>
+      </c>
+      <c r="D29" t="n">
+        <v>68.76874221418564</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>34</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-2.556384995684348</v>
+      </c>
+      <c r="D30" t="n">
+        <v>70.64444196615726</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>34</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-1.196992733213019</v>
+      </c>
+      <c r="D31" t="n">
+        <v>70.76076133019515</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>35</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-3.302979800750293</v>
+      </c>
+      <c r="D32" t="n">
+        <v>69.67551181021553</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>35</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-1.442816884516019</v>
+      </c>
+      <c r="D33" t="n">
+        <v>68.8431203335129</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>35</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-0.0737346713457338</v>
+      </c>
+      <c r="D34" t="n">
+        <v>72.87636836793122</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>36</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.6635189858648661</v>
+      </c>
+      <c r="D35" t="n">
+        <v>70.40980776563792</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>37</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-0.06948297716695957</v>
+      </c>
+      <c r="D36" t="n">
+        <v>73.68723740350283</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>37</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2.516840273167112</v>
+      </c>
+      <c r="D37" t="n">
+        <v>74.01715897332009</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>37</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2.220476379602284</v>
+      </c>
+      <c r="D38" t="n">
+        <v>72.4752500235456</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>38</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.921064154097934</v>
+      </c>
+      <c r="D39" t="n">
+        <v>72.93177178013423</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2.661541520604036</v>
+      </c>
+      <c r="D40" t="n">
+        <v>73.51230760743267</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>38</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.858980583165666</v>
+      </c>
+      <c r="D41" t="n">
+        <v>75.07369457658973</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>39</v>
+      </c>
+      <c r="C42" t="n">
+        <v>3.29763374330522</v>
+      </c>
+      <c r="D42" t="n">
+        <v>74.19138823773828</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>39</v>
+      </c>
+      <c r="C43" t="n">
+        <v>4.561100818299553</v>
+      </c>
+      <c r="D43" t="n">
+        <v>75.75252711077322</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>40</v>
+      </c>
+      <c r="C44" t="n">
+        <v>4.204437177600406</v>
+      </c>
+      <c r="D44" t="n">
+        <v>73.94866140182279</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>40</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2.039836089043189</v>
+      </c>
+      <c r="D45" t="n">
+        <v>75.13217048735099</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>41</v>
+      </c>
+      <c r="C46" t="n">
+        <v>7.330910265056937</v>
+      </c>
+      <c r="D46" t="n">
+        <v>75.93426628069044</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>41</v>
+      </c>
+      <c r="C47" t="n">
+        <v>7.786195265500148</v>
+      </c>
+      <c r="D47" t="n">
+        <v>76.6929271506157</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>42</v>
+      </c>
+      <c r="C48" t="n">
+        <v>5.102379065313959</v>
+      </c>
+      <c r="D48" t="n">
+        <v>76.4975782569702</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>42</v>
+      </c>
+      <c r="C49" t="n">
+        <v>5.391485907680945</v>
+      </c>
+      <c r="D49" t="n">
+        <v>76.49075532776756</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>42</v>
+      </c>
+      <c r="C50" t="n">
+        <v>8.508292369086112</v>
+      </c>
+      <c r="D50" t="n">
+        <v>77.81215929688048</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>43</v>
+      </c>
+      <c r="C51" t="n">
+        <v>6.404679038589513</v>
+      </c>
+      <c r="D51" t="n">
+        <v>80.3956891781029</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>43</v>
+      </c>
+      <c r="C52" t="n">
+        <v>6.787046990523588</v>
+      </c>
+      <c r="D52" t="n">
+        <v>78.09803923762061</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>43</v>
+      </c>
+      <c r="C53" t="n">
+        <v>7.329516356577764</v>
+      </c>
+      <c r="D53" t="n">
+        <v>76.75273496161992</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>43</v>
+      </c>
+      <c r="C54" t="n">
+        <v>7.192023774475824</v>
+      </c>
+      <c r="D54" t="n">
+        <v>79.22643348599517</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>43</v>
+      </c>
+      <c r="C55" t="n">
+        <v>8.54868367854486</v>
+      </c>
+      <c r="D55" t="n">
+        <v>77.56201054777954</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>44</v>
+      </c>
+      <c r="C56" t="n">
+        <v>8.790613507961309</v>
+      </c>
+      <c r="D56" t="n">
+        <v>79.94224567319669</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>44</v>
+      </c>
+      <c r="C57" t="n">
+        <v>7.873272221309033</v>
+      </c>
+      <c r="D57" t="n">
+        <v>79.3230277862793</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>44</v>
+      </c>
+      <c r="C58" t="n">
+        <v>10.17405603984611</v>
+      </c>
+      <c r="D58" t="n">
+        <v>81.86657864494735</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>44</v>
+      </c>
+      <c r="C59" t="n">
+        <v>8.948007748334366</v>
+      </c>
+      <c r="D59" t="n">
+        <v>78.79868699898168</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>45</v>
+      </c>
+      <c r="C60" t="n">
+        <v>7.940001570890627</v>
+      </c>
+      <c r="D60" t="n">
+        <v>80.56460792244373</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>45</v>
+      </c>
+      <c r="C61" t="n">
+        <v>12.51110260152766</v>
+      </c>
+      <c r="D61" t="n">
+        <v>78.98169426803778</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BRBXF3MW_po_data.xlsx
+++ b/po_analysis_by_asin/B0BRBXF3MW_po_data.xlsx
@@ -1069,7 +1069,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1088,16 +1088,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1106,12 +1096,6 @@
       <c r="B2" t="n">
         <v>23</v>
       </c>
-      <c r="C2" t="n">
-        <v>-15.61506340866121</v>
-      </c>
-      <c r="D2" t="n">
-        <v>57.09786530621413</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1120,12 +1104,6 @@
       <c r="B3" t="n">
         <v>24</v>
       </c>
-      <c r="C3" t="n">
-        <v>-11.76873756880311</v>
-      </c>
-      <c r="D3" t="n">
-        <v>60.65042121521493</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1134,12 +1112,6 @@
       <c r="B4" t="n">
         <v>24</v>
       </c>
-      <c r="C4" t="n">
-        <v>-10.12525676165679</v>
-      </c>
-      <c r="D4" t="n">
-        <v>60.56215488677437</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1148,12 +1120,6 @@
       <c r="B5" t="n">
         <v>24</v>
       </c>
-      <c r="C5" t="n">
-        <v>-9.83851055539499</v>
-      </c>
-      <c r="D5" t="n">
-        <v>58.75412967137404</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1162,12 +1128,6 @@
       <c r="B6" t="n">
         <v>24</v>
       </c>
-      <c r="C6" t="n">
-        <v>-9.974103823685299</v>
-      </c>
-      <c r="D6" t="n">
-        <v>58.63932091176819</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1176,12 +1136,6 @@
       <c r="B7" t="n">
         <v>25</v>
       </c>
-      <c r="C7" t="n">
-        <v>-14.2183116898207</v>
-      </c>
-      <c r="D7" t="n">
-        <v>59.07501646975803</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1190,12 +1144,6 @@
       <c r="B8" t="n">
         <v>25</v>
       </c>
-      <c r="C8" t="n">
-        <v>-14.94945315942833</v>
-      </c>
-      <c r="D8" t="n">
-        <v>57.54133688259731</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1204,12 +1152,6 @@
       <c r="B9" t="n">
         <v>25</v>
       </c>
-      <c r="C9" t="n">
-        <v>-11.23073210037863</v>
-      </c>
-      <c r="D9" t="n">
-        <v>57.03637928588709</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1218,12 +1160,6 @@
       <c r="B10" t="n">
         <v>25</v>
       </c>
-      <c r="C10" t="n">
-        <v>-10.8179939662141</v>
-      </c>
-      <c r="D10" t="n">
-        <v>62.06929623279016</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1232,12 +1168,6 @@
       <c r="B11" t="n">
         <v>25</v>
       </c>
-      <c r="C11" t="n">
-        <v>-10.66370749177719</v>
-      </c>
-      <c r="D11" t="n">
-        <v>60.56027882229612</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1246,12 +1176,6 @@
       <c r="B12" t="n">
         <v>26</v>
       </c>
-      <c r="C12" t="n">
-        <v>-9.493105806318853</v>
-      </c>
-      <c r="D12" t="n">
-        <v>62.31552837046255</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1260,12 +1184,6 @@
       <c r="B13" t="n">
         <v>26</v>
       </c>
-      <c r="C13" t="n">
-        <v>-11.82441277675334</v>
-      </c>
-      <c r="D13" t="n">
-        <v>60.7557079536303</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1274,12 +1192,6 @@
       <c r="B14" t="n">
         <v>27</v>
       </c>
-      <c r="C14" t="n">
-        <v>-7.066349811587548</v>
-      </c>
-      <c r="D14" t="n">
-        <v>64.73607840145843</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1288,12 +1200,6 @@
       <c r="B15" t="n">
         <v>27</v>
       </c>
-      <c r="C15" t="n">
-        <v>-9.852328678775018</v>
-      </c>
-      <c r="D15" t="n">
-        <v>64.28308017955324</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1302,12 +1208,6 @@
       <c r="B16" t="n">
         <v>28</v>
       </c>
-      <c r="C16" t="n">
-        <v>-6.019080940277938</v>
-      </c>
-      <c r="D16" t="n">
-        <v>62.6479663483631</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1316,12 +1216,6 @@
       <c r="B17" t="n">
         <v>29</v>
       </c>
-      <c r="C17" t="n">
-        <v>-6.51066407129093</v>
-      </c>
-      <c r="D17" t="n">
-        <v>65.55852719797404</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1330,12 +1224,6 @@
       <c r="B18" t="n">
         <v>29</v>
       </c>
-      <c r="C18" t="n">
-        <v>-7.014186971367607</v>
-      </c>
-      <c r="D18" t="n">
-        <v>64.50367467456202</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1344,12 +1232,6 @@
       <c r="B19" t="n">
         <v>29</v>
       </c>
-      <c r="C19" t="n">
-        <v>-7.911254452358056</v>
-      </c>
-      <c r="D19" t="n">
-        <v>66.4555029913241</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1358,12 +1240,6 @@
       <c r="B20" t="n">
         <v>30</v>
       </c>
-      <c r="C20" t="n">
-        <v>-6.042749756182386</v>
-      </c>
-      <c r="D20" t="n">
-        <v>66.19386444557448</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1372,12 +1248,6 @@
       <c r="B21" t="n">
         <v>30</v>
       </c>
-      <c r="C21" t="n">
-        <v>-6.055707797051016</v>
-      </c>
-      <c r="D21" t="n">
-        <v>63.7291700121112</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1386,12 +1256,6 @@
       <c r="B22" t="n">
         <v>30</v>
       </c>
-      <c r="C22" t="n">
-        <v>-5.192378473933331</v>
-      </c>
-      <c r="D22" t="n">
-        <v>64.2916366606765</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1400,12 +1264,6 @@
       <c r="B23" t="n">
         <v>31</v>
       </c>
-      <c r="C23" t="n">
-        <v>-6.189659976969986</v>
-      </c>
-      <c r="D23" t="n">
-        <v>66.69307911957254</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1414,12 +1272,6 @@
       <c r="B24" t="n">
         <v>31</v>
       </c>
-      <c r="C24" t="n">
-        <v>-6.508018660634038</v>
-      </c>
-      <c r="D24" t="n">
-        <v>64.22381174451584</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1428,12 +1280,6 @@
       <c r="B25" t="n">
         <v>31</v>
       </c>
-      <c r="C25" t="n">
-        <v>-5.123927747894798</v>
-      </c>
-      <c r="D25" t="n">
-        <v>66.38673495779123</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1442,12 +1288,6 @@
       <c r="B26" t="n">
         <v>32</v>
       </c>
-      <c r="C26" t="n">
-        <v>-3.866557331032655</v>
-      </c>
-      <c r="D26" t="n">
-        <v>67.16130378604058</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1456,12 +1296,6 @@
       <c r="B27" t="n">
         <v>32</v>
       </c>
-      <c r="C27" t="n">
-        <v>-2.830672303494972</v>
-      </c>
-      <c r="D27" t="n">
-        <v>67.39284117914821</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1470,12 +1304,6 @@
       <c r="B28" t="n">
         <v>32</v>
       </c>
-      <c r="C28" t="n">
-        <v>-2.776873682707441</v>
-      </c>
-      <c r="D28" t="n">
-        <v>69.76145306631385</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1484,12 +1312,6 @@
       <c r="B29" t="n">
         <v>34</v>
       </c>
-      <c r="C29" t="n">
-        <v>-2.609990160351677</v>
-      </c>
-      <c r="D29" t="n">
-        <v>68.76874221418564</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1498,12 +1320,6 @@
       <c r="B30" t="n">
         <v>34</v>
       </c>
-      <c r="C30" t="n">
-        <v>-2.556384995684348</v>
-      </c>
-      <c r="D30" t="n">
-        <v>70.64444196615726</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1512,12 +1328,6 @@
       <c r="B31" t="n">
         <v>34</v>
       </c>
-      <c r="C31" t="n">
-        <v>-1.196992733213019</v>
-      </c>
-      <c r="D31" t="n">
-        <v>70.76076133019515</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1526,12 +1336,6 @@
       <c r="B32" t="n">
         <v>35</v>
       </c>
-      <c r="C32" t="n">
-        <v>-3.302979800750293</v>
-      </c>
-      <c r="D32" t="n">
-        <v>69.67551181021553</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1540,12 +1344,6 @@
       <c r="B33" t="n">
         <v>35</v>
       </c>
-      <c r="C33" t="n">
-        <v>-1.442816884516019</v>
-      </c>
-      <c r="D33" t="n">
-        <v>68.8431203335129</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1554,12 +1352,6 @@
       <c r="B34" t="n">
         <v>35</v>
       </c>
-      <c r="C34" t="n">
-        <v>-0.0737346713457338</v>
-      </c>
-      <c r="D34" t="n">
-        <v>72.87636836793122</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1568,12 +1360,6 @@
       <c r="B35" t="n">
         <v>36</v>
       </c>
-      <c r="C35" t="n">
-        <v>0.6635189858648661</v>
-      </c>
-      <c r="D35" t="n">
-        <v>70.40980776563792</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1582,12 +1368,6 @@
       <c r="B36" t="n">
         <v>37</v>
       </c>
-      <c r="C36" t="n">
-        <v>-0.06948297716695957</v>
-      </c>
-      <c r="D36" t="n">
-        <v>73.68723740350283</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1596,12 +1376,6 @@
       <c r="B37" t="n">
         <v>37</v>
       </c>
-      <c r="C37" t="n">
-        <v>2.516840273167112</v>
-      </c>
-      <c r="D37" t="n">
-        <v>74.01715897332009</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1610,12 +1384,6 @@
       <c r="B38" t="n">
         <v>37</v>
       </c>
-      <c r="C38" t="n">
-        <v>2.220476379602284</v>
-      </c>
-      <c r="D38" t="n">
-        <v>72.4752500235456</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1624,12 +1392,6 @@
       <c r="B39" t="n">
         <v>38</v>
       </c>
-      <c r="C39" t="n">
-        <v>0.921064154097934</v>
-      </c>
-      <c r="D39" t="n">
-        <v>72.93177178013423</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1638,12 +1400,6 @@
       <c r="B40" t="n">
         <v>38</v>
       </c>
-      <c r="C40" t="n">
-        <v>2.661541520604036</v>
-      </c>
-      <c r="D40" t="n">
-        <v>73.51230760743267</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1652,12 +1408,6 @@
       <c r="B41" t="n">
         <v>38</v>
       </c>
-      <c r="C41" t="n">
-        <v>1.858980583165666</v>
-      </c>
-      <c r="D41" t="n">
-        <v>75.07369457658973</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1666,12 +1416,6 @@
       <c r="B42" t="n">
         <v>39</v>
       </c>
-      <c r="C42" t="n">
-        <v>3.29763374330522</v>
-      </c>
-      <c r="D42" t="n">
-        <v>74.19138823773828</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1680,12 +1424,6 @@
       <c r="B43" t="n">
         <v>39</v>
       </c>
-      <c r="C43" t="n">
-        <v>4.561100818299553</v>
-      </c>
-      <c r="D43" t="n">
-        <v>75.75252711077322</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1694,12 +1432,6 @@
       <c r="B44" t="n">
         <v>40</v>
       </c>
-      <c r="C44" t="n">
-        <v>4.204437177600406</v>
-      </c>
-      <c r="D44" t="n">
-        <v>73.94866140182279</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1708,12 +1440,6 @@
       <c r="B45" t="n">
         <v>40</v>
       </c>
-      <c r="C45" t="n">
-        <v>2.039836089043189</v>
-      </c>
-      <c r="D45" t="n">
-        <v>75.13217048735099</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1722,12 +1448,6 @@
       <c r="B46" t="n">
         <v>41</v>
       </c>
-      <c r="C46" t="n">
-        <v>7.330910265056937</v>
-      </c>
-      <c r="D46" t="n">
-        <v>75.93426628069044</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1736,12 +1456,6 @@
       <c r="B47" t="n">
         <v>41</v>
       </c>
-      <c r="C47" t="n">
-        <v>7.786195265500148</v>
-      </c>
-      <c r="D47" t="n">
-        <v>76.6929271506157</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1750,12 +1464,6 @@
       <c r="B48" t="n">
         <v>42</v>
       </c>
-      <c r="C48" t="n">
-        <v>5.102379065313959</v>
-      </c>
-      <c r="D48" t="n">
-        <v>76.4975782569702</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1764,12 +1472,6 @@
       <c r="B49" t="n">
         <v>42</v>
       </c>
-      <c r="C49" t="n">
-        <v>5.391485907680945</v>
-      </c>
-      <c r="D49" t="n">
-        <v>76.49075532776756</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1778,12 +1480,6 @@
       <c r="B50" t="n">
         <v>42</v>
       </c>
-      <c r="C50" t="n">
-        <v>8.508292369086112</v>
-      </c>
-      <c r="D50" t="n">
-        <v>77.81215929688048</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1792,12 +1488,6 @@
       <c r="B51" t="n">
         <v>43</v>
       </c>
-      <c r="C51" t="n">
-        <v>6.404679038589513</v>
-      </c>
-      <c r="D51" t="n">
-        <v>80.3956891781029</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1806,12 +1496,6 @@
       <c r="B52" t="n">
         <v>43</v>
       </c>
-      <c r="C52" t="n">
-        <v>6.787046990523588</v>
-      </c>
-      <c r="D52" t="n">
-        <v>78.09803923762061</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1820,12 +1504,6 @@
       <c r="B53" t="n">
         <v>43</v>
       </c>
-      <c r="C53" t="n">
-        <v>7.329516356577764</v>
-      </c>
-      <c r="D53" t="n">
-        <v>76.75273496161992</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1834,12 +1512,6 @@
       <c r="B54" t="n">
         <v>43</v>
       </c>
-      <c r="C54" t="n">
-        <v>7.192023774475824</v>
-      </c>
-      <c r="D54" t="n">
-        <v>79.22643348599517</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1848,12 +1520,6 @@
       <c r="B55" t="n">
         <v>43</v>
       </c>
-      <c r="C55" t="n">
-        <v>8.54868367854486</v>
-      </c>
-      <c r="D55" t="n">
-        <v>77.56201054777954</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1862,12 +1528,6 @@
       <c r="B56" t="n">
         <v>44</v>
       </c>
-      <c r="C56" t="n">
-        <v>8.790613507961309</v>
-      </c>
-      <c r="D56" t="n">
-        <v>79.94224567319669</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -1876,12 +1536,6 @@
       <c r="B57" t="n">
         <v>44</v>
       </c>
-      <c r="C57" t="n">
-        <v>7.873272221309033</v>
-      </c>
-      <c r="D57" t="n">
-        <v>79.3230277862793</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -1890,12 +1544,6 @@
       <c r="B58" t="n">
         <v>44</v>
       </c>
-      <c r="C58" t="n">
-        <v>10.17405603984611</v>
-      </c>
-      <c r="D58" t="n">
-        <v>81.86657864494735</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -1904,12 +1552,6 @@
       <c r="B59" t="n">
         <v>44</v>
       </c>
-      <c r="C59" t="n">
-        <v>8.948007748334366</v>
-      </c>
-      <c r="D59" t="n">
-        <v>78.79868699898168</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -1918,12 +1560,6 @@
       <c r="B60" t="n">
         <v>45</v>
       </c>
-      <c r="C60" t="n">
-        <v>7.940001570890627</v>
-      </c>
-      <c r="D60" t="n">
-        <v>80.56460792244373</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -1931,12 +1567,6 @@
       </c>
       <c r="B61" t="n">
         <v>45</v>
-      </c>
-      <c r="C61" t="n">
-        <v>12.51110260152766</v>
-      </c>
-      <c r="D61" t="n">
-        <v>78.98169426803778</v>
       </c>
     </row>
   </sheetData>
